--- a/คู่มือติดตั้ง Cypress.xlsx
+++ b/คู่มือติดตั้ง Cypress.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development_cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EABC3C-E7EB-4369-B7E6-B64B62F02667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669703BB-6017-4D97-BEA4-50E93DF4459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{E4415AD7-55F1-4DC6-A94A-EB984DC164E4}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E4415AD7-55F1-4DC6-A94A-EB984DC164E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1. Create folder local</t>
   </si>
@@ -106,6 +107,33 @@
   </si>
   <si>
     <t>//for mac "clean:reports": "rm -R -f cypress/reports &amp;&amp; mkdir cypress/reports &amp;&amp; mkdir cypress/reports/mochareports"</t>
+  </si>
+  <si>
+    <t>เอาไฟล์ขึ้น git</t>
+  </si>
+  <si>
+    <t>1. ทำการ Add file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - git add ชื่อไฟล์.สกุลไฟล์  หรือ git add .   (. คือทั้งหมด)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - git status</t>
+  </si>
+  <si>
+    <t>2. commit (คือ confirm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - git commit -m "ชื่ออะไรก็ได้"</t>
+  </si>
+  <si>
+    <t>3. put ขึ้น git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - git push -u origin main</t>
+  </si>
+  <si>
+    <t>เมื่อมีการ edit file</t>
   </si>
 </sst>
 </file>
@@ -512,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49B77C-101F-49B9-83D9-B21453424CB9}">
   <dimension ref="A2:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -608,6 +636,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6D3B75-6A06-404D-A778-A0A6D2C5AB5D}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE3C95A-B490-475B-9815-0BEFEC0479EE}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/คู่มือติดตั้ง Cypress.xlsx
+++ b/คู่มือติดตั้ง Cypress.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development_cypress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x10/Documents/DevelopCypress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669703BB-6017-4D97-BEA4-50E93DF4459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28148741-6E94-854E-8A5D-75D8C78C88B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E4415AD7-55F1-4DC6-A94A-EB984DC164E4}"/>
+    <workbookView xWindow="4900" yWindow="1660" windowWidth="25340" windowHeight="16260" xr2:uid="{E4415AD7-55F1-4DC6-A94A-EB984DC164E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -540,89 +540,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49B77C-101F-49B9-83D9-B21453424CB9}">
   <dimension ref="A2:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -636,66 +636,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6D3B75-6A06-404D-A778-A0A6D2C5AB5D}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE3C95A-B490-475B-9815-0BEFEC0479EE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -703,27 +643,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -731,19 +671,79 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="363" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6D3B75-6A06-404D-A778-A0A6D2C5AB5D}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/คู่มือติดตั้ง Cypress.xlsx
+++ b/คู่มือติดตั้ง Cypress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x10/Documents/DevelopCypress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x10/Documents/TestDev/DevelopCypress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28148741-6E94-854E-8A5D-75D8C78C88B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A5436-C00B-8F48-A1DC-454D56AA4788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4900" yWindow="1660" windowWidth="25340" windowHeight="16260" xr2:uid="{E4415AD7-55F1-4DC6-A94A-EB984DC164E4}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A2:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/คู่มือติดตั้ง Cypress.xlsx
+++ b/คู่มือติดตั้ง Cypress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x10/Documents/TestDev/DevelopCypress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A5436-C00B-8F48-A1DC-454D56AA4788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3CA517-62DF-934D-9335-5DE3D70F008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4900" yWindow="1660" windowWidth="25340" windowHeight="16260" xr2:uid="{E4415AD7-55F1-4DC6-A94A-EB984DC164E4}"/>
   </bookViews>
@@ -38,25 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>1. Create folder local</t>
-  </si>
-  <si>
-    <t>2. Open folder เข้ามาใน VS code</t>
-  </si>
-  <si>
-    <t>3. Install package.json ใช้คำสั่ง npm in -y</t>
-  </si>
-  <si>
-    <t>4. Install npm cypress ใช้คำสั่ง  npm install cypress</t>
-  </si>
-  <si>
-    <t>5. ตรวจสอบความเรียบร้อยพร้อมใช้งาน ใช้คำสั่ง npx cypress verify</t>
-  </si>
-  <si>
-    <t>6. เปิดเรียกใช้งาน cypress โดยใช้คำสั่ง npx cypress open เสมอ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>https://medium.com/@mintminttttt/qa-cypress-for-beginner-4c6a5a623292</t>
   </si>
@@ -64,9 +46,6 @@
     <t>ติดตั้ง cypress</t>
   </si>
   <si>
-    <t>7. install xpath cypress ใช้คำสั่ง npm install -D cypress-xpath</t>
-  </si>
-  <si>
     <t>name: Cypress Tests on: [push] jobs: cypress-run: runs-on: ubuntu-latest # Runs tests in parallel with matrix strategy https://docs.cypress.io/guides/guides/parallelization # https://docs.github.com/en/actions/using-jobs/using-a-matrix-for-your-jobs # Also see warning here https://github.com/cypress-io/github-action#parallel strategy: fail-fast: false # https://github.com/cypress-io/github-action/issues/48 matrix: containers: [1, 2] # Uses 2 parallel instances steps: - name: Checkout uses: actions/checkout@v4 - name: Cypress run # Uses the official Cypress GitHub action https://github.com/cypress-io/github-action uses: cypress-io/github-action@v6 with: # Starts web server for E2E tests - replace with your own server invocation # https://docs.cypress.io/guides/continuous-integration/introduction#Boot-your-server start: npm start wait-on: 'http://localhost:3000' # Waits for above # Records to Cypress Cloud # https://docs.cypress.io/guides/cloud/projects#Set-up-a-project-to-record record: true parallel: true # Runs test in parallel using settings above env: # For recording and parallelization to work you must set your CYPRESS_RECORD_KEY # in GitHub repo → Settings → Secrets → Actions CYPRESS_RECORD_KEY: ${{ secrets.CYPRESS_RECORD_KEY }} # Creating a token https://docs.github.com/en/authentication/keeping-your-account-and-data-secure/creating-a-personal-access-token GITHUB_TOKEN: ${{ secrets.GITHUB_TOKEN }}</t>
   </si>
   <si>
@@ -134,6 +113,30 @@
   </si>
   <si>
     <t>เมื่อมีการ edit file</t>
+  </si>
+  <si>
+    <t>3. Install package.json ใช้คำสั่ง npm init -y</t>
+  </si>
+  <si>
+    <t>1. Create folder</t>
+  </si>
+  <si>
+    <t>2. เข้า VS code and open folder</t>
+  </si>
+  <si>
+    <t>5. ตรวจสอบ Version ใช้คำสั่ง npx cypress verify</t>
+  </si>
+  <si>
+    <t>8. install xpath cypress ใช้คำสั่ง npm install -D cypress-xpath</t>
+  </si>
+  <si>
+    <t>6. ตรวจสอบความเรียบร้อยพร้อมใช้งาน ใช้คำสั่ง npx cypress version</t>
+  </si>
+  <si>
+    <t>4. Install node module ใช้คำสั่ง  npm install cypress</t>
+  </si>
+  <si>
+    <t>7. เปิดเรียกใช้งาน cypress โดยใช้คำสั่ง npx cypress open</t>
   </si>
 </sst>
 </file>
@@ -538,17 +541,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49B77C-101F-49B9-83D9-B21453424CB9}">
-  <dimension ref="A2:A23"/>
+  <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -556,80 +559,85 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" tooltip="https://medium.com/@mintminttttt/qa-cypress-for-beginner-4c6a5a623292" xr:uid="{E6284F2B-25EE-4AEC-A296-A50E45253597}"/>
+    <hyperlink ref="A14" r:id="rId1" tooltip="https://medium.com/@mintminttttt/qa-cypress-for-beginner-4c6a5a623292" xr:uid="{E6284F2B-25EE-4AEC-A296-A50E45253597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -650,40 +658,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -703,47 +711,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
